--- a/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area4_count.xlsx
+++ b/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area4_count.xlsx
@@ -378,23 +378,23 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>19984</v>
+        <v>35227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>18362</v>
+        <v>19394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11542</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>9591</v>
+        <v>1327</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area4_count.xlsx
+++ b/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area4_count.xlsx
@@ -375,34 +375,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>35227</v>
+        <v>35198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19394</v>
+        <v>19453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3531</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1327</v>
+        <v>1356</v>
       </c>
     </row>
   </sheetData>
